--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,267 +43,252 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>terrible</t>
+  </si>
+  <si>
     <t>trash</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>less</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>sound</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>picture</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>enough</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -319,6 +304,9 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
@@ -359,6 +347,9 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -719,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -830,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -880,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>0.7777777777777778</v>
@@ -959,16 +950,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K6">
-        <v>0.6774193548387096</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,16 +1000,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K7">
-        <v>0.6037735849056604</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1030,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1080,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7619047619047619</v>
+        <v>0.78125</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1106,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K9">
-        <v>0.4057971014492754</v>
+        <v>0.46875</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K10">
-        <v>0.3491803278688524</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="L10">
-        <v>426</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>426</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1180,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>794</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1188,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>0.3012912482065997</v>
+        <v>0.3385245901639344</v>
       </c>
       <c r="L11">
-        <v>210</v>
+        <v>413</v>
       </c>
       <c r="M11">
-        <v>210</v>
+        <v>413</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1230,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>487</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7378640776699029</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C12">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K12">
-        <v>0.2614107883817428</v>
+        <v>0.2812051649928264</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>356</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7142857142857143</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K13">
-        <v>0.2333333333333333</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1330,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>92</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1338,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7043010752688172</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C14">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1356,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K14">
-        <v>0.2168674698795181</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6901408450704225</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K15">
-        <v>0.1681957186544343</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1430,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>272</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1456,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1590214067278287</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1480,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>168</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1488,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6818181818181818</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1506,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K17">
-        <v>0.1075268817204301</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1538,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6621621621621622</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C18">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K18">
-        <v>0.08835341365461848</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>227</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6134453781512605</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,31 +1597,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K19">
-        <v>0.08421052631578947</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L19">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1044</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K20">
-        <v>0.03439325113562622</v>
+        <v>0.07712532865907099</v>
       </c>
       <c r="L20">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="M20">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1680,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1488</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1708,19 +1699,43 @@
       <c r="H21">
         <v>22</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L21">
+        <v>65</v>
+      </c>
+      <c r="M21">
+        <v>66</v>
+      </c>
+      <c r="N21">
+        <v>0.98</v>
+      </c>
+      <c r="O21">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1475</v>
+      </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5526315789473685</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1732,7 +1747,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22">
+        <v>0.02133333333333333</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>0.89</v>
+      </c>
+      <c r="O22">
+        <v>0.11</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5476190476190477</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1792,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5161290322580645</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1810,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1857,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1844,13 +1883,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5043478260869565</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C27">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D27">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1862,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1870,13 +1909,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1888,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1896,13 +1935,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4761904761904762</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1914,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1922,13 +1961,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4571428571428571</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1940,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1948,13 +1987,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4337349397590362</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1966,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1974,13 +2013,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4047619047619048</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1992,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2000,13 +2039,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3953488372093023</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2018,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2026,13 +2065,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3894736842105263</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2044,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2052,13 +2091,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3888888888888889</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2070,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2078,13 +2117,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3858267716535433</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2096,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2130,13 +2169,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3673469387755102</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2148,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2156,13 +2195,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3666666666666666</v>
+        <v>0.35</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2174,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2182,13 +2221,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3518518518518519</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2200,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2208,13 +2247,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.34375</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2226,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2234,7 +2273,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3333333333333333</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -2252,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2260,13 +2299,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.328125</v>
+        <v>0.3125</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2278,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2286,13 +2325,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3114754098360656</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2304,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2312,13 +2351,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3090909090909091</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2330,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>38</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2338,13 +2377,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3061224489795918</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2356,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2364,13 +2403,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2857142857142857</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2382,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2390,13 +2429,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2772277227722773</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2408,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2416,13 +2455,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2701421800947867</v>
+        <v>0.2734375</v>
       </c>
       <c r="C49">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2434,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2442,13 +2481,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2698412698412698</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2460,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2468,13 +2507,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2678571428571428</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2486,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>41</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2494,13 +2533,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2448979591836735</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2512,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2520,13 +2559,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2388059701492537</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2538,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2546,13 +2585,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2319587628865979</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2564,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2572,13 +2611,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2590,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2598,13 +2637,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2033898305084746</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2616,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>94</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2624,13 +2663,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2642,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>60</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2650,13 +2689,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1868131868131868</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2668,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2676,13 +2715,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1839762611275964</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C59">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D59">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2694,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>550</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2702,13 +2741,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.177536231884058</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C60">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2720,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>227</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2728,13 +2767,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1752577319587629</v>
+        <v>0.16</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2746,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2757,10 +2796,10 @@
         <v>0.16</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D62">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2772,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2780,25 +2819,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1582278481012658</v>
+        <v>0.1492063492063492</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2806,13 +2845,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.154639175257732</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2824,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2832,13 +2871,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1542056074766355</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2850,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2858,13 +2897,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1538461538461539</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2876,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>110</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2884,7 +2923,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1528662420382166</v>
+        <v>0.125</v>
       </c>
       <c r="C67">
         <v>24</v>
@@ -2902,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2910,13 +2949,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1518987341772152</v>
+        <v>0.125</v>
       </c>
       <c r="C68">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2928,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>268</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2936,13 +2975,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1484375</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2954,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>109</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2962,13 +3001,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1481481481481481</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2980,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>92</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2988,13 +3027,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1371428571428571</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3006,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3014,13 +3053,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1343612334801762</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3032,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>393</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3040,13 +3079,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1285714285714286</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3058,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3066,13 +3105,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1147540983606557</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3084,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3092,25 +3131,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.109375</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3118,25 +3157,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1037463976945245</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D76">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3144,25 +3183,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1016042780748663</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3170,13 +3209,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09274193548387097</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3188,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>225</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3196,25 +3235,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08900523560209424</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>174</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3222,13 +3261,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08614232209737828</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C80">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3240,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3248,25 +3287,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.08493150684931507</v>
+        <v>0.05379746835443038</v>
       </c>
       <c r="C81">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>334</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3274,25 +3313,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.0625</v>
+        <v>0.04788732394366197</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>420</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3300,25 +3339,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05932203389830509</v>
+        <v>0.03944315545243619</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>333</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3326,25 +3365,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0580046403712297</v>
+        <v>0.03802281368821293</v>
       </c>
       <c r="C84">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E84">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F84">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>406</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3352,13 +3391,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.05445544554455446</v>
+        <v>0.02599388379204893</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>0.06</v>
@@ -3370,137 +3409,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="C86">
-        <v>15</v>
-      </c>
-      <c r="D86">
-        <v>15</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.04746835443037975</v>
-      </c>
-      <c r="C87">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>16</v>
-      </c>
-      <c r="E87">
-        <v>0.06</v>
-      </c>
-      <c r="F87">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.03511450381679389</v>
-      </c>
-      <c r="C88">
-        <v>23</v>
-      </c>
-      <c r="D88">
-        <v>23</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.03504672897196261</v>
-      </c>
-      <c r="C89">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>16</v>
-      </c>
-      <c r="E89">
-        <v>0.06</v>
-      </c>
-      <c r="F89">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.03299492385786802</v>
-      </c>
-      <c r="C90">
-        <v>26</v>
-      </c>
-      <c r="D90">
-        <v>32</v>
-      </c>
-      <c r="E90">
-        <v>0.19</v>
-      </c>
-      <c r="F90">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>762</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
